--- a/data/pca/factorExposure/factorExposure_2019-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1264450563297303</v>
+        <v>0.07837608030068154</v>
       </c>
       <c r="C2">
-        <v>-0.02127330571625903</v>
+        <v>-0.01608592136289513</v>
       </c>
       <c r="D2">
-        <v>0.03909310489555427</v>
+        <v>0.04071358384970514</v>
       </c>
       <c r="E2">
-        <v>0.09326140761041783</v>
+        <v>-0.06727110158692153</v>
       </c>
       <c r="F2">
-        <v>-0.0973419476319245</v>
+        <v>-0.1218587301826242</v>
       </c>
       <c r="G2">
-        <v>-0.1294375144271656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09235353146920912</v>
+      </c>
+      <c r="H2">
+        <v>-0.08509167135634302</v>
+      </c>
+      <c r="I2">
+        <v>-0.02372179473799696</v>
+      </c>
+      <c r="J2">
+        <v>0.04136981923614474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2141561704893193</v>
+        <v>0.1618024333265864</v>
       </c>
       <c r="C3">
-        <v>0.08283527301375786</v>
+        <v>-0.08207347104625928</v>
       </c>
       <c r="D3">
-        <v>-0.02379532343180669</v>
+        <v>-0.03223059313911131</v>
       </c>
       <c r="E3">
-        <v>0.3196412613185107</v>
+        <v>-0.1216157836984433</v>
       </c>
       <c r="F3">
-        <v>-0.02389660646616525</v>
+        <v>-0.3559016404037306</v>
       </c>
       <c r="G3">
-        <v>-0.3637946571865495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01790208352219656</v>
+      </c>
+      <c r="H3">
+        <v>-0.2859985569223816</v>
+      </c>
+      <c r="I3">
+        <v>-0.1542119060522745</v>
+      </c>
+      <c r="J3">
+        <v>0.3721551429449226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09834172825646904</v>
+        <v>0.07230295361350489</v>
       </c>
       <c r="C4">
-        <v>0.02208412939344137</v>
+        <v>-0.03379335267454908</v>
       </c>
       <c r="D4">
-        <v>0.01684152534004291</v>
+        <v>0.02376231952512929</v>
       </c>
       <c r="E4">
-        <v>0.07342206809721862</v>
+        <v>0.001840000633096122</v>
       </c>
       <c r="F4">
-        <v>-0.05090040525540238</v>
+        <v>-0.09581443779083897</v>
       </c>
       <c r="G4">
-        <v>-0.03815845422944648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0342425983130852</v>
+      </c>
+      <c r="H4">
+        <v>-0.03218457412479082</v>
+      </c>
+      <c r="I4">
+        <v>-0.02709578005975539</v>
+      </c>
+      <c r="J4">
+        <v>0.04370130613944124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01381745270354352</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003147378316513482</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000106175813529544</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00417790818648143</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001978949588396263</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01834121311650703</v>
+      </c>
+      <c r="H6">
+        <v>-0.001875445981327258</v>
+      </c>
+      <c r="I6">
+        <v>0.002252848338994178</v>
+      </c>
+      <c r="J6">
+        <v>-0.001169229657509655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04331522792970226</v>
+        <v>0.03319776792389483</v>
       </c>
       <c r="C7">
-        <v>0.004947571290466994</v>
+        <v>-0.01739216127587941</v>
       </c>
       <c r="D7">
-        <v>0.03203531186564604</v>
+        <v>0.01858715766186184</v>
       </c>
       <c r="E7">
-        <v>0.08407514912912807</v>
+        <v>-0.01104321332271629</v>
       </c>
       <c r="F7">
-        <v>0.03380682764555128</v>
+        <v>-0.06273028051013901</v>
       </c>
       <c r="G7">
-        <v>-0.01977901314775549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0130355159119491</v>
+      </c>
+      <c r="H7">
+        <v>-0.05046635000664747</v>
+      </c>
+      <c r="I7">
+        <v>0.0002674951457985428</v>
+      </c>
+      <c r="J7">
+        <v>0.01447919591955285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04341526150483319</v>
+        <v>0.03195983956570829</v>
       </c>
       <c r="C8">
-        <v>0.03651651449291756</v>
+        <v>-0.03774884861313882</v>
       </c>
       <c r="D8">
-        <v>-0.000201837460113373</v>
+        <v>0.006943389274585466</v>
       </c>
       <c r="E8">
-        <v>0.06818603769491183</v>
+        <v>-0.004316367323170714</v>
       </c>
       <c r="F8">
-        <v>0.0001614353875396388</v>
+        <v>-0.08508780492283502</v>
       </c>
       <c r="G8">
-        <v>-0.0560561225900044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0008221953065970579</v>
+      </c>
+      <c r="H8">
+        <v>-0.05564337845777864</v>
+      </c>
+      <c r="I8">
+        <v>-0.02878233081690429</v>
+      </c>
+      <c r="J8">
+        <v>0.03922395655414191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08490778669942739</v>
+        <v>0.06113282888956044</v>
       </c>
       <c r="C9">
-        <v>0.02480110566464228</v>
+        <v>-0.03416760510668658</v>
       </c>
       <c r="D9">
-        <v>0.02760951697848425</v>
+        <v>0.0244946169539934</v>
       </c>
       <c r="E9">
-        <v>0.06681768744407288</v>
+        <v>0.004761864555288381</v>
       </c>
       <c r="F9">
-        <v>-0.03231889214463084</v>
+        <v>-0.09744106923002405</v>
       </c>
       <c r="G9">
-        <v>-0.03814949515039041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02553797084507187</v>
+      </c>
+      <c r="H9">
+        <v>-0.02962031093790985</v>
+      </c>
+      <c r="I9">
+        <v>-0.007170266525924597</v>
+      </c>
+      <c r="J9">
+        <v>0.006971864988841491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01588230055201776</v>
+        <v>0.01037826391638699</v>
       </c>
       <c r="C10">
-        <v>-0.1611736375389433</v>
+        <v>0.1602740593414621</v>
       </c>
       <c r="D10">
-        <v>-0.008404793388218049</v>
+        <v>-0.01455732156686494</v>
       </c>
       <c r="E10">
-        <v>0.0536764136705799</v>
+        <v>-0.03793617261460599</v>
       </c>
       <c r="F10">
-        <v>-0.01071870651823041</v>
+        <v>-0.04824758507969668</v>
       </c>
       <c r="G10">
-        <v>-0.001300768782207867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02113821963432156</v>
+      </c>
+      <c r="H10">
+        <v>0.004364096599596416</v>
+      </c>
+      <c r="I10">
+        <v>-0.121933393925619</v>
+      </c>
+      <c r="J10">
+        <v>0.009307637620536227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05766108538700147</v>
+        <v>0.04831056376231682</v>
       </c>
       <c r="C11">
-        <v>0.003266660764398669</v>
+        <v>-0.02115473103600614</v>
       </c>
       <c r="D11">
-        <v>-0.01118823332129182</v>
+        <v>0.005808323379099937</v>
       </c>
       <c r="E11">
-        <v>0.04016078704248054</v>
+        <v>-0.02484065598981196</v>
       </c>
       <c r="F11">
-        <v>-0.006211858632445597</v>
+        <v>-0.03928870588361359</v>
       </c>
       <c r="G11">
-        <v>0.01616069401383571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.003077026299674232</v>
+      </c>
+      <c r="H11">
+        <v>-0.01418836424600445</v>
+      </c>
+      <c r="I11">
+        <v>0.01745422181903532</v>
+      </c>
+      <c r="J11">
+        <v>0.0111742758201845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04378040796606431</v>
+        <v>0.04412114300419504</v>
       </c>
       <c r="C12">
-        <v>0.01066398556203105</v>
+        <v>-0.02229841583143672</v>
       </c>
       <c r="D12">
-        <v>-0.007536090607420897</v>
+        <v>0.006128749571515275</v>
       </c>
       <c r="E12">
-        <v>0.0335527999997575</v>
+        <v>-0.007381695825933373</v>
       </c>
       <c r="F12">
-        <v>-0.002643048609449646</v>
+        <v>-0.02465448283671798</v>
       </c>
       <c r="G12">
-        <v>0.0003301716497541326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00364859614506416</v>
+      </c>
+      <c r="H12">
+        <v>-0.01143359494800731</v>
+      </c>
+      <c r="I12">
+        <v>0.01730605462019143</v>
+      </c>
+      <c r="J12">
+        <v>0.004316355162584874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06050087274062195</v>
+        <v>0.04066150985831617</v>
       </c>
       <c r="C13">
-        <v>0.01505670485041658</v>
+        <v>-0.02184095807646812</v>
       </c>
       <c r="D13">
-        <v>-0.01059316097502461</v>
+        <v>0.007515395734851388</v>
       </c>
       <c r="E13">
-        <v>0.1081829165972896</v>
+        <v>-0.05068099350703426</v>
       </c>
       <c r="F13">
-        <v>-0.02117126827914722</v>
+        <v>-0.09218962564500359</v>
       </c>
       <c r="G13">
-        <v>-0.05434763863051385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.008605846727995961</v>
+      </c>
+      <c r="H13">
+        <v>-0.06093058388129313</v>
+      </c>
+      <c r="I13">
+        <v>-0.009186295739676735</v>
+      </c>
+      <c r="J13">
+        <v>0.02850101744952389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03777562851074512</v>
+        <v>0.02772304722836058</v>
       </c>
       <c r="C14">
-        <v>0.006411657226960875</v>
+        <v>-0.01451598020757586</v>
       </c>
       <c r="D14">
-        <v>0.02192896722573505</v>
+        <v>0.02284301601593196</v>
       </c>
       <c r="E14">
-        <v>0.02040469937516362</v>
+        <v>-0.003788840644371707</v>
       </c>
       <c r="F14">
-        <v>0.004851236217178919</v>
+        <v>-0.03959007450675307</v>
       </c>
       <c r="G14">
-        <v>-0.04211813717106616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01392149751296416</v>
+      </c>
+      <c r="H14">
+        <v>-0.05925515763150935</v>
+      </c>
+      <c r="I14">
+        <v>-0.01614806085077346</v>
+      </c>
+      <c r="J14">
+        <v>-0.006955293775477238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.0487696179994631</v>
+        <v>0.04205320893596791</v>
       </c>
       <c r="C16">
-        <v>0.02057252522246074</v>
+        <v>-0.02909825979207314</v>
       </c>
       <c r="D16">
-        <v>-0.01871311692334281</v>
+        <v>0.001196807597510681</v>
       </c>
       <c r="E16">
-        <v>0.03814182184468719</v>
+        <v>-0.02183823474310427</v>
       </c>
       <c r="F16">
-        <v>-0.001269728222780791</v>
+        <v>-0.03242839238254255</v>
       </c>
       <c r="G16">
-        <v>0.01213896687337127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006297864399849904</v>
+      </c>
+      <c r="H16">
+        <v>-0.016043835868003</v>
+      </c>
+      <c r="I16">
+        <v>0.01418971228161024</v>
+      </c>
+      <c r="J16">
+        <v>0.009797423535251386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05238613563692283</v>
+        <v>0.04462924715523765</v>
       </c>
       <c r="C19">
-        <v>0.02605240790215415</v>
+        <v>-0.03492986676692311</v>
       </c>
       <c r="D19">
-        <v>-0.0008145176861626604</v>
+        <v>0.008733616157716591</v>
       </c>
       <c r="E19">
-        <v>0.07675245003954097</v>
+        <v>-0.02946562932228574</v>
       </c>
       <c r="F19">
-        <v>0.00575283178448439</v>
+        <v>-0.08685398599309455</v>
       </c>
       <c r="G19">
-        <v>-0.07531312311176598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.004805641694928045</v>
+      </c>
+      <c r="H19">
+        <v>-0.08743847693123587</v>
+      </c>
+      <c r="I19">
+        <v>-0.03556908813149073</v>
+      </c>
+      <c r="J19">
+        <v>0.02193708986531507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03830977166984625</v>
+        <v>0.0181259854518157</v>
       </c>
       <c r="C20">
-        <v>0.0335668283706027</v>
+        <v>-0.03281910271695477</v>
       </c>
       <c r="D20">
-        <v>0.01199611702350544</v>
+        <v>0.0151545098082961</v>
       </c>
       <c r="E20">
-        <v>0.06662938000161051</v>
+        <v>-0.0123123140042974</v>
       </c>
       <c r="F20">
-        <v>0.01415148936046463</v>
+        <v>-0.07316314975963344</v>
       </c>
       <c r="G20">
-        <v>-0.04630947675148837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01064979018754468</v>
+      </c>
+      <c r="H20">
+        <v>-0.07623199959283787</v>
+      </c>
+      <c r="I20">
+        <v>-0.01325685476374266</v>
+      </c>
+      <c r="J20">
+        <v>0.0504142206254445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03913006398019363</v>
+        <v>0.01865015932808585</v>
       </c>
       <c r="C21">
-        <v>0.01433143757623273</v>
+        <v>-0.02496091978569298</v>
       </c>
       <c r="D21">
-        <v>-0.005918659890396282</v>
+        <v>-0.00269232764987139</v>
       </c>
       <c r="E21">
-        <v>0.08484047195921701</v>
+        <v>-0.01549433670205817</v>
       </c>
       <c r="F21">
-        <v>-0.04589768292284421</v>
+        <v>-0.07827488250806747</v>
       </c>
       <c r="G21">
-        <v>-0.05168240282896328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02171527876916968</v>
+      </c>
+      <c r="H21">
+        <v>-0.04137871594088135</v>
+      </c>
+      <c r="I21">
+        <v>0.004382604481862391</v>
+      </c>
+      <c r="J21">
+        <v>-0.0134492234517584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04840301670713897</v>
+        <v>0.04094830865198842</v>
       </c>
       <c r="C24">
-        <v>0.01192683211027995</v>
+        <v>-0.0186852050452337</v>
       </c>
       <c r="D24">
-        <v>-0.005450208586265218</v>
+        <v>0.005524474134696256</v>
       </c>
       <c r="E24">
-        <v>0.0481181753895448</v>
+        <v>-0.01897940655408454</v>
       </c>
       <c r="F24">
-        <v>-0.00350900884786221</v>
+        <v>-0.04228534282093426</v>
       </c>
       <c r="G24">
-        <v>0.006950702177955341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008796713302783138</v>
+      </c>
+      <c r="H24">
+        <v>-0.01499254389604175</v>
+      </c>
+      <c r="I24">
+        <v>0.01439969371244514</v>
+      </c>
+      <c r="J24">
+        <v>0.01879862796923641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04938737442494989</v>
+        <v>0.04241251969949178</v>
       </c>
       <c r="C25">
-        <v>0.003450439922673936</v>
+        <v>-0.01965436157375768</v>
       </c>
       <c r="D25">
-        <v>-0.008554425000248759</v>
+        <v>0.003167186821498539</v>
       </c>
       <c r="E25">
-        <v>0.04522070985563437</v>
+        <v>-0.02131156562007396</v>
       </c>
       <c r="F25">
-        <v>-0.01003849005037578</v>
+        <v>-0.044811520034019</v>
       </c>
       <c r="G25">
-        <v>0.009926993624698762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001912485585454872</v>
+      </c>
+      <c r="H25">
+        <v>-0.009608326910269636</v>
+      </c>
+      <c r="I25">
+        <v>0.01608942275858597</v>
+      </c>
+      <c r="J25">
+        <v>0.008400903932825415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005927944454324806</v>
+        <v>0.01167979436380123</v>
       </c>
       <c r="C26">
-        <v>0.01630076358434384</v>
+        <v>-0.01625854667066969</v>
       </c>
       <c r="D26">
-        <v>0.004962842695587361</v>
+        <v>-0.001288853765346477</v>
       </c>
       <c r="E26">
-        <v>0.04873426847769795</v>
+        <v>-0.02851970979673027</v>
       </c>
       <c r="F26">
-        <v>-0.01768965176603504</v>
+        <v>-0.04553539012969715</v>
       </c>
       <c r="G26">
-        <v>-0.01518392816755827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008654016815888696</v>
+      </c>
+      <c r="H26">
+        <v>-0.03861366593824928</v>
+      </c>
+      <c r="I26">
+        <v>0.005587616486974941</v>
+      </c>
+      <c r="J26">
+        <v>0.01386988846693909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1132610396503527</v>
+        <v>0.08606389291015608</v>
       </c>
       <c r="C27">
-        <v>0.01480298443203561</v>
+        <v>-0.02698558207012325</v>
       </c>
       <c r="D27">
-        <v>0.0178037986172867</v>
+        <v>0.02897142553397615</v>
       </c>
       <c r="E27">
-        <v>0.1109075479572653</v>
+        <v>-0.01402076229109258</v>
       </c>
       <c r="F27">
-        <v>-0.02359133288317329</v>
+        <v>-0.08792905401510455</v>
       </c>
       <c r="G27">
-        <v>0.002798569891972308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.004998062131725176</v>
+      </c>
+      <c r="H27">
+        <v>-0.009540603414080865</v>
+      </c>
+      <c r="I27">
+        <v>-0.007677090209577703</v>
+      </c>
+      <c r="J27">
+        <v>0.02789190029305538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01611779324963385</v>
+        <v>0.02475934513068916</v>
       </c>
       <c r="C28">
-        <v>-0.241470894152296</v>
+        <v>0.2328458613117906</v>
       </c>
       <c r="D28">
-        <v>-0.01862219567382849</v>
+        <v>-0.02219622058082541</v>
       </c>
       <c r="E28">
-        <v>0.030694077310467</v>
+        <v>-0.03105272606996013</v>
       </c>
       <c r="F28">
-        <v>-0.01167008345123079</v>
+        <v>-0.0379133891146302</v>
       </c>
       <c r="G28">
-        <v>0.01514107956847817</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02506553195540851</v>
+      </c>
+      <c r="H28">
+        <v>0.02546458216812761</v>
+      </c>
+      <c r="I28">
+        <v>-0.1690555371509878</v>
+      </c>
+      <c r="J28">
+        <v>0.02464694232595895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0201722759699204</v>
+        <v>0.01889881832209619</v>
       </c>
       <c r="C29">
-        <v>0.01681474680889392</v>
+        <v>-0.01827504759739742</v>
       </c>
       <c r="D29">
-        <v>0.02370417745254626</v>
+        <v>0.02117419187440506</v>
       </c>
       <c r="E29">
-        <v>0.02854779843089299</v>
+        <v>0.001895619157952187</v>
       </c>
       <c r="F29">
-        <v>-0.006504033924004854</v>
+        <v>-0.04170619684188297</v>
       </c>
       <c r="G29">
-        <v>-0.04070744688469661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01361481649259429</v>
+      </c>
+      <c r="H29">
+        <v>-0.05808810560087822</v>
+      </c>
+      <c r="I29">
+        <v>-0.006735451131841615</v>
+      </c>
+      <c r="J29">
+        <v>-0.02070836956474238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1071473516688496</v>
+        <v>0.0991974201328944</v>
       </c>
       <c r="C30">
-        <v>0.008598402934270154</v>
+        <v>-0.03575903688784279</v>
       </c>
       <c r="D30">
-        <v>0.01353802038505167</v>
+        <v>0.03179538728591463</v>
       </c>
       <c r="E30">
-        <v>0.1250740709786533</v>
+        <v>-0.05491307167212559</v>
       </c>
       <c r="F30">
-        <v>-0.03550273980686334</v>
+        <v>-0.1038928429726684</v>
       </c>
       <c r="G30">
-        <v>0.06947760387087848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.007924090236132445</v>
+      </c>
+      <c r="H30">
+        <v>-0.01168055541819564</v>
+      </c>
+      <c r="I30">
+        <v>0.02757967863341703</v>
+      </c>
+      <c r="J30">
+        <v>-0.002299456540595639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05747091777673341</v>
+        <v>0.05945602294725277</v>
       </c>
       <c r="C31">
-        <v>0.01016731633578925</v>
+        <v>-0.01735312087911656</v>
       </c>
       <c r="D31">
-        <v>0.01835537522101967</v>
+        <v>0.01972571779822889</v>
       </c>
       <c r="E31">
-        <v>-0.02185973970390812</v>
+        <v>-0.01176259158592267</v>
       </c>
       <c r="F31">
-        <v>-0.00516120175566684</v>
+        <v>-0.001006653859343648</v>
       </c>
       <c r="G31">
-        <v>-0.00737600927772947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03470487217736079</v>
+      </c>
+      <c r="H31">
+        <v>-0.04751454845188016</v>
+      </c>
+      <c r="I31">
+        <v>-0.01115923212781599</v>
+      </c>
+      <c r="J31">
+        <v>-0.01895224766228957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07185711603136612</v>
+        <v>0.04773161595288071</v>
       </c>
       <c r="C32">
-        <v>0.02463672125134507</v>
+        <v>-0.0441016999091807</v>
       </c>
       <c r="D32">
-        <v>0.0117190415479322</v>
+        <v>0.0226867563243158</v>
       </c>
       <c r="E32">
-        <v>0.1139486315660947</v>
+        <v>-0.0170924041909842</v>
       </c>
       <c r="F32">
-        <v>0.003444400652899677</v>
+        <v>-0.1000445946798377</v>
       </c>
       <c r="G32">
-        <v>-0.03663313101667312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.00274842103877509</v>
+      </c>
+      <c r="H32">
+        <v>-0.04634763883793919</v>
+      </c>
+      <c r="I32">
+        <v>-0.02172669292540187</v>
+      </c>
+      <c r="J32">
+        <v>-0.006990280395444733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06977115514117456</v>
+        <v>0.05798809218810937</v>
       </c>
       <c r="C33">
-        <v>0.0287809254685956</v>
+        <v>-0.04471953123043163</v>
       </c>
       <c r="D33">
-        <v>0.007925991462537424</v>
+        <v>0.007151600795572175</v>
       </c>
       <c r="E33">
-        <v>0.06924726341002096</v>
+        <v>-0.03814502260951504</v>
       </c>
       <c r="F33">
-        <v>-0.04278830224781257</v>
+        <v>-0.07435691474407263</v>
       </c>
       <c r="G33">
-        <v>-0.02613918481916107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01936907794011468</v>
+      </c>
+      <c r="H33">
+        <v>-0.0514312791483896</v>
+      </c>
+      <c r="I33">
+        <v>0.01429132113734331</v>
+      </c>
+      <c r="J33">
+        <v>0.0133312562172849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04733388642460611</v>
+        <v>0.04120130187163747</v>
       </c>
       <c r="C34">
-        <v>0.01231666299301523</v>
+        <v>-0.0243325726982529</v>
       </c>
       <c r="D34">
-        <v>-0.006237875675696477</v>
+        <v>0.009377487225924833</v>
       </c>
       <c r="E34">
-        <v>0.02566792056190794</v>
+        <v>-0.01493275703118668</v>
       </c>
       <c r="F34">
-        <v>0.002504523899735586</v>
+        <v>-0.03393987758716312</v>
       </c>
       <c r="G34">
-        <v>-0.004666221217180883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0006929960969144432</v>
+      </c>
+      <c r="H34">
+        <v>-0.02043594646650631</v>
+      </c>
+      <c r="I34">
+        <v>0.01368126478363285</v>
+      </c>
+      <c r="J34">
+        <v>0.0008760235648978236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01216702863078196</v>
+        <v>0.01390206387111708</v>
       </c>
       <c r="C36">
-        <v>-0.01058444146935398</v>
+        <v>-0.000450148946304423</v>
       </c>
       <c r="D36">
-        <v>0.006017405232236917</v>
+        <v>0.007331782229191232</v>
       </c>
       <c r="E36">
-        <v>0.0228336766235493</v>
+        <v>-0.005839768807276384</v>
       </c>
       <c r="F36">
-        <v>-0.007648261537538655</v>
+        <v>-0.02984234640766203</v>
       </c>
       <c r="G36">
-        <v>-0.01395213397740787</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01419358406043869</v>
+      </c>
+      <c r="H36">
+        <v>-0.03382446872463425</v>
+      </c>
+      <c r="I36">
+        <v>-0.002907766951238795</v>
+      </c>
+      <c r="J36">
+        <v>-0.01940413856763408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05577893451379858</v>
+        <v>0.03132887031046427</v>
       </c>
       <c r="C38">
-        <v>0.001968499648531774</v>
+        <v>-0.008398886845882849</v>
       </c>
       <c r="D38">
-        <v>0.02585237519097025</v>
+        <v>0.008343952781972129</v>
       </c>
       <c r="E38">
-        <v>0.03159777922118473</v>
+        <v>-0.01231734594965513</v>
       </c>
       <c r="F38">
-        <v>-0.01308944202503021</v>
+        <v>-0.05031125826964906</v>
       </c>
       <c r="G38">
-        <v>-0.04641428794986249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02423207134967804</v>
+      </c>
+      <c r="H38">
+        <v>-0.02035233883444278</v>
+      </c>
+      <c r="I38">
+        <v>0.0007555965583268745</v>
+      </c>
+      <c r="J38">
+        <v>-0.02756270196004759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07586882329047075</v>
+        <v>0.05806434999044655</v>
       </c>
       <c r="C39">
-        <v>0.01159672171663108</v>
+        <v>-0.0347702596625565</v>
       </c>
       <c r="D39">
-        <v>-0.00154042006192616</v>
+        <v>0.01654651249939127</v>
       </c>
       <c r="E39">
-        <v>0.04826112970689454</v>
+        <v>-0.03464345183098985</v>
       </c>
       <c r="F39">
-        <v>-0.02355284393645358</v>
+        <v>-0.05293993595318767</v>
       </c>
       <c r="G39">
-        <v>0.007966739138418995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01147011792165189</v>
+      </c>
+      <c r="H39">
+        <v>-0.01592461143786875</v>
+      </c>
+      <c r="I39">
+        <v>0.03370472288715269</v>
+      </c>
+      <c r="J39">
+        <v>0.006223263417679129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07228263988785161</v>
+        <v>0.05641496073015817</v>
       </c>
       <c r="C40">
-        <v>0.02567774015214958</v>
+        <v>-0.03345767542535399</v>
       </c>
       <c r="D40">
-        <v>0.002615518032852964</v>
+        <v>0.02461668449616358</v>
       </c>
       <c r="E40">
-        <v>0.1108663678162806</v>
+        <v>-0.05904225938893633</v>
       </c>
       <c r="F40">
-        <v>-0.03721472218130231</v>
+        <v>-0.09476812390856551</v>
       </c>
       <c r="G40">
-        <v>-0.0992848819156226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.002877489128602971</v>
+      </c>
+      <c r="H40">
+        <v>-0.08163828497183948</v>
+      </c>
+      <c r="I40">
+        <v>-0.00377830559994584</v>
+      </c>
+      <c r="J40">
+        <v>0.05415100564695928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004050282779164624</v>
+        <v>0.001084223045408045</v>
       </c>
       <c r="C41">
-        <v>0.01140561717827373</v>
+        <v>-0.01052986504195812</v>
       </c>
       <c r="D41">
-        <v>0.018802190681817</v>
+        <v>0.005160155655869978</v>
       </c>
       <c r="E41">
-        <v>0.01043848019179748</v>
+        <v>-0.001582185819009566</v>
       </c>
       <c r="F41">
-        <v>-0.02268572980667244</v>
+        <v>-0.01760286467798936</v>
       </c>
       <c r="G41">
-        <v>-0.02772963744168497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02740996187769248</v>
+      </c>
+      <c r="H41">
+        <v>-0.04024305509847685</v>
+      </c>
+      <c r="I41">
+        <v>-0.02370884523026186</v>
+      </c>
+      <c r="J41">
+        <v>-0.00416745412092792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1416891426572328</v>
+        <v>0.242846993820559</v>
       </c>
       <c r="C42">
-        <v>0.1870684382013595</v>
+        <v>-0.1534212044611557</v>
       </c>
       <c r="D42">
-        <v>-0.9308931275738135</v>
+        <v>-0.9019511055581602</v>
       </c>
       <c r="E42">
-        <v>-0.04953963951773508</v>
+        <v>-0.1390720011927234</v>
       </c>
       <c r="F42">
-        <v>0.01933339068847294</v>
+        <v>0.2301191648418406</v>
       </c>
       <c r="G42">
-        <v>0.1136809704309024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.00638609501533257</v>
+      </c>
+      <c r="H42">
+        <v>-0.004323787409925472</v>
+      </c>
+      <c r="I42">
+        <v>-0.05484974258955409</v>
+      </c>
+      <c r="J42">
+        <v>0.0046188255958594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008446851844591596</v>
+        <v>0.003519017721248267</v>
       </c>
       <c r="C43">
-        <v>0.01347853582665985</v>
+        <v>-0.01311219356580978</v>
       </c>
       <c r="D43">
-        <v>0.01754181635220328</v>
+        <v>0.00648877047459294</v>
       </c>
       <c r="E43">
-        <v>0.03011642453030198</v>
+        <v>-0.008077036917462947</v>
       </c>
       <c r="F43">
-        <v>0.001512643895064534</v>
+        <v>-0.02860571508257822</v>
       </c>
       <c r="G43">
-        <v>-0.02117742868371916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009158984552672491</v>
+      </c>
+      <c r="H43">
+        <v>-0.03926111349958686</v>
+      </c>
+      <c r="I43">
+        <v>-0.01519269348830894</v>
+      </c>
+      <c r="J43">
+        <v>0.002292730618516843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04080013734384479</v>
+        <v>0.02675350861476754</v>
       </c>
       <c r="C44">
-        <v>0.03675673422963848</v>
+        <v>-0.03200401415081099</v>
       </c>
       <c r="D44">
-        <v>0.007978827642414388</v>
+        <v>0.00213216920504451</v>
       </c>
       <c r="E44">
-        <v>0.1119709242116054</v>
+        <v>-0.04162629702303821</v>
       </c>
       <c r="F44">
-        <v>-0.07725008825585464</v>
+        <v>-0.1162962055880628</v>
       </c>
       <c r="G44">
-        <v>-0.1293541050100999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03428719038342675</v>
+      </c>
+      <c r="H44">
+        <v>-0.1195817707327196</v>
+      </c>
+      <c r="I44">
+        <v>-0.02293331460939052</v>
+      </c>
+      <c r="J44">
+        <v>0.0147276582336888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02138695697935117</v>
+        <v>0.02111179759120121</v>
       </c>
       <c r="C46">
-        <v>0.01196229490012618</v>
+        <v>-0.02454243538843628</v>
       </c>
       <c r="D46">
-        <v>0.02330693276197753</v>
+        <v>0.0196113683773387</v>
       </c>
       <c r="E46">
-        <v>0.02076331224302363</v>
+        <v>-0.01322274669093392</v>
       </c>
       <c r="F46">
-        <v>-0.02059393457387442</v>
+        <v>-0.0453681091116327</v>
       </c>
       <c r="G46">
-        <v>-0.04204728032568263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01601671136159125</v>
+      </c>
+      <c r="H46">
+        <v>-0.06411993942832979</v>
+      </c>
+      <c r="I46">
+        <v>-0.01454199049659711</v>
+      </c>
+      <c r="J46">
+        <v>0.002291253473767808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08107923012026122</v>
+        <v>0.08825810836081739</v>
       </c>
       <c r="C47">
-        <v>0.005077093688519548</v>
+        <v>-0.01659591389648652</v>
       </c>
       <c r="D47">
-        <v>0.01998573795838419</v>
+        <v>0.02515054527890577</v>
       </c>
       <c r="E47">
-        <v>-0.02578391228815398</v>
+        <v>0.003879344576510055</v>
       </c>
       <c r="F47">
-        <v>-0.0003869124305090334</v>
+        <v>0.002636465817821632</v>
       </c>
       <c r="G47">
-        <v>-0.0302772712115165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0319044250948842</v>
+      </c>
+      <c r="H47">
+        <v>-0.06507509947119507</v>
+      </c>
+      <c r="I47">
+        <v>-0.01994796354807775</v>
+      </c>
+      <c r="J47">
+        <v>-0.00567972573104513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01540663688656079</v>
+        <v>0.01610510233813204</v>
       </c>
       <c r="C48">
-        <v>0.01568980133824245</v>
+        <v>-0.01833861179185329</v>
       </c>
       <c r="D48">
-        <v>0.01518091391702795</v>
+        <v>0.008672018808779486</v>
       </c>
       <c r="E48">
-        <v>0.03392577553105656</v>
+        <v>-0.00481870069742528</v>
       </c>
       <c r="F48">
-        <v>-0.01547746108319981</v>
+        <v>-0.03655493006332842</v>
       </c>
       <c r="G48">
-        <v>-0.012421351036175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007552233821310489</v>
+      </c>
+      <c r="H48">
+        <v>-0.02551486395166879</v>
+      </c>
+      <c r="I48">
+        <v>-0.01312911677364322</v>
+      </c>
+      <c r="J48">
+        <v>-0.002305960854985768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07894917930097753</v>
+        <v>0.08256214210159546</v>
       </c>
       <c r="C50">
-        <v>0.01808007733254696</v>
+        <v>-0.02804357310121633</v>
       </c>
       <c r="D50">
-        <v>0.02722365356655962</v>
+        <v>0.02045413444660687</v>
       </c>
       <c r="E50">
-        <v>-0.02775406413493309</v>
+        <v>0.005954538787975356</v>
       </c>
       <c r="F50">
-        <v>-0.0009906356620768731</v>
+        <v>-0.002099721000460096</v>
       </c>
       <c r="G50">
-        <v>-0.01942564590077183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004145312694578561</v>
+      </c>
+      <c r="H50">
+        <v>-0.05366504455782956</v>
+      </c>
+      <c r="I50">
+        <v>-0.002799327172838189</v>
+      </c>
+      <c r="J50">
+        <v>-0.05035433936679919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07059990461680582</v>
+        <v>0.04771806369702176</v>
       </c>
       <c r="C51">
-        <v>-0.0240511179089735</v>
+        <v>0.004771575453302284</v>
       </c>
       <c r="D51">
-        <v>-0.003409019489833297</v>
+        <v>0.01068279522738059</v>
       </c>
       <c r="E51">
-        <v>0.07489112831691346</v>
+        <v>-0.05459928572260307</v>
       </c>
       <c r="F51">
-        <v>-0.05087172983268892</v>
+        <v>-0.08057572586022517</v>
       </c>
       <c r="G51">
-        <v>-0.02229260665541956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04462459159238728</v>
+      </c>
+      <c r="H51">
+        <v>-0.06583709101423939</v>
+      </c>
+      <c r="I51">
+        <v>-0.03301860188522917</v>
+      </c>
+      <c r="J51">
+        <v>-0.003593145140021354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1439075095225935</v>
+        <v>0.1279298494459817</v>
       </c>
       <c r="C53">
-        <v>0.00597830587387306</v>
+        <v>-0.03387473033023239</v>
       </c>
       <c r="D53">
-        <v>0.04532214029716431</v>
+        <v>0.0483369103305485</v>
       </c>
       <c r="E53">
-        <v>-0.03909031490328393</v>
+        <v>0.0171993456273761</v>
       </c>
       <c r="F53">
-        <v>0.01168748645408504</v>
+        <v>0.02735547866512599</v>
       </c>
       <c r="G53">
-        <v>0.003058935940505374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02291079778236623</v>
+      </c>
+      <c r="H53">
+        <v>-0.005017804672281432</v>
+      </c>
+      <c r="I53">
+        <v>-0.03223882987170681</v>
+      </c>
+      <c r="J53">
+        <v>0.03599299763938332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02555656728104656</v>
+        <v>0.0211183544570629</v>
       </c>
       <c r="C54">
-        <v>-0.005914626545584271</v>
+        <v>-0.007179673311148815</v>
       </c>
       <c r="D54">
-        <v>0.02692373252775648</v>
+        <v>0.02374483981611616</v>
       </c>
       <c r="E54">
-        <v>0.0296626536310497</v>
+        <v>-0.000513075637359939</v>
       </c>
       <c r="F54">
-        <v>-0.03933363294456493</v>
+        <v>-0.0462807305557625</v>
       </c>
       <c r="G54">
-        <v>-0.05383497278441867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03316336264285157</v>
+      </c>
+      <c r="H54">
+        <v>-0.05542467304385715</v>
+      </c>
+      <c r="I54">
+        <v>-0.03247760424672051</v>
+      </c>
+      <c r="J54">
+        <v>-0.02580702565721163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09735632742389683</v>
+        <v>0.1012355313823786</v>
       </c>
       <c r="C55">
-        <v>-0.004951275042701486</v>
+        <v>-0.01799619400357276</v>
       </c>
       <c r="D55">
-        <v>0.04000308309793512</v>
+        <v>0.0301142078132668</v>
       </c>
       <c r="E55">
-        <v>-0.003354812553140951</v>
+        <v>0.03706424257895122</v>
       </c>
       <c r="F55">
-        <v>0.02791684025527477</v>
+        <v>0.006531573595176437</v>
       </c>
       <c r="G55">
-        <v>0.009270434996061123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01136728738296141</v>
+      </c>
+      <c r="H55">
+        <v>-0.01951415883134053</v>
+      </c>
+      <c r="I55">
+        <v>-0.01180653036110805</v>
+      </c>
+      <c r="J55">
+        <v>0.02532850033942764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.178649738655865</v>
+        <v>0.1694983023224844</v>
       </c>
       <c r="C56">
-        <v>-0.02053046483845345</v>
+        <v>-0.01540101273155519</v>
       </c>
       <c r="D56">
-        <v>0.07851000202870985</v>
+        <v>0.08474211198344306</v>
       </c>
       <c r="E56">
-        <v>-0.06878788670527794</v>
+        <v>0.05253204572991679</v>
       </c>
       <c r="F56">
-        <v>0.06562810321226828</v>
+        <v>0.05588870522204519</v>
       </c>
       <c r="G56">
-        <v>0.02864706106372771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0225887571215896</v>
+      </c>
+      <c r="H56">
+        <v>0.03838547246270253</v>
+      </c>
+      <c r="I56">
+        <v>0.0008213340615201202</v>
+      </c>
+      <c r="J56">
+        <v>0.06233407931358152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09008520639360366</v>
+        <v>0.06937143647208198</v>
       </c>
       <c r="C57">
-        <v>0.02146007524301773</v>
+        <v>-0.02806188958875483</v>
       </c>
       <c r="D57">
-        <v>0.02243099617043007</v>
+        <v>0.01359203391200179</v>
       </c>
       <c r="E57">
-        <v>0.06324823287278471</v>
+        <v>-0.03429432014497619</v>
       </c>
       <c r="F57">
-        <v>-0.0192305507017153</v>
+        <v>-0.06228199129027016</v>
       </c>
       <c r="G57">
-        <v>-0.04645408137196672</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.005892583875761976</v>
+      </c>
+      <c r="H57">
+        <v>-0.04381484661662376</v>
+      </c>
+      <c r="I57">
+        <v>0.01097555887086256</v>
+      </c>
+      <c r="J57">
+        <v>0.0409274854044302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1643550762104701</v>
+        <v>0.1976446640374671</v>
       </c>
       <c r="C58">
-        <v>-0.008408035026887233</v>
+        <v>-0.04266617396801883</v>
       </c>
       <c r="D58">
-        <v>-0.04665952415700924</v>
+        <v>-0.008140780659266144</v>
       </c>
       <c r="E58">
-        <v>0.137915568390395</v>
+        <v>-0.1032189813461675</v>
       </c>
       <c r="F58">
-        <v>0.07213852528152234</v>
+        <v>-0.1646516298590815</v>
       </c>
       <c r="G58">
-        <v>-0.2797918773248422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1629577998165827</v>
+      </c>
+      <c r="H58">
+        <v>-0.3301756716964788</v>
+      </c>
+      <c r="I58">
+        <v>-0.02261020242258789</v>
+      </c>
+      <c r="J58">
+        <v>-0.6617614333072241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.00286220038283635</v>
+        <v>0.02878114248824608</v>
       </c>
       <c r="C59">
-        <v>-0.2044510603747734</v>
+        <v>0.1985425167074298</v>
       </c>
       <c r="D59">
-        <v>0.01236473125273631</v>
+        <v>0.01307457142464407</v>
       </c>
       <c r="E59">
-        <v>0.04933819700646307</v>
+        <v>-0.05083171396294198</v>
       </c>
       <c r="F59">
-        <v>-0.01197173812096504</v>
+        <v>-0.04402100222261081</v>
       </c>
       <c r="G59">
-        <v>0.01673156393977712</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004847185396770763</v>
+      </c>
+      <c r="H59">
+        <v>0.02053551645808434</v>
+      </c>
+      <c r="I59">
+        <v>-0.0743882662937322</v>
+      </c>
+      <c r="J59">
+        <v>-0.02910953644554456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1878600274087953</v>
+        <v>0.1836580770164527</v>
       </c>
       <c r="C60">
-        <v>-0.1176960728079945</v>
+        <v>0.05626690760498336</v>
       </c>
       <c r="D60">
-        <v>0.02353899958930111</v>
+        <v>0.02921227007588547</v>
       </c>
       <c r="E60">
-        <v>0.170146055790343</v>
+        <v>-0.1538691998284485</v>
       </c>
       <c r="F60">
-        <v>-0.05562646675297101</v>
+        <v>-0.1558685203731735</v>
       </c>
       <c r="G60">
-        <v>0.1757173978966062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05755830689417835</v>
+      </c>
+      <c r="H60">
+        <v>0.2470447723991788</v>
+      </c>
+      <c r="I60">
+        <v>0.1020976318880962</v>
+      </c>
+      <c r="J60">
+        <v>-0.01425625200347885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04895986072438478</v>
+        <v>0.03875559195364307</v>
       </c>
       <c r="C61">
-        <v>-0.0005179435281468754</v>
+        <v>-0.0184396620820592</v>
       </c>
       <c r="D61">
-        <v>-0.01216374441846658</v>
+        <v>0.002429844887752183</v>
       </c>
       <c r="E61">
-        <v>0.0516305613384318</v>
+        <v>-0.02585650440125342</v>
       </c>
       <c r="F61">
-        <v>-0.02518023767439036</v>
+        <v>-0.04287394092964911</v>
       </c>
       <c r="G61">
-        <v>0.0103389310936803</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.007900257103969325</v>
+      </c>
+      <c r="H61">
+        <v>-0.006126553779183562</v>
+      </c>
+      <c r="I61">
+        <v>0.03696749986318425</v>
+      </c>
+      <c r="J61">
+        <v>-0.01354695787970565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04268543993395696</v>
+        <v>0.02888685952435921</v>
       </c>
       <c r="C63">
-        <v>-0.01016901241220006</v>
+        <v>-0.01368010498419724</v>
       </c>
       <c r="D63">
-        <v>0.01588059938709166</v>
+        <v>0.01346603010671858</v>
       </c>
       <c r="E63">
-        <v>0.0366056360741713</v>
+        <v>-0.01317242441118152</v>
       </c>
       <c r="F63">
-        <v>-0.005320479409241249</v>
+        <v>-0.02893072520950755</v>
       </c>
       <c r="G63">
-        <v>-0.01863153539004582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.005604140373017571</v>
+      </c>
+      <c r="H63">
+        <v>-0.04711279056480207</v>
+      </c>
+      <c r="I63">
+        <v>-0.02948106277030273</v>
+      </c>
+      <c r="J63">
+        <v>0.02379719149047432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08700477092938004</v>
+        <v>0.06241305963256547</v>
       </c>
       <c r="C64">
-        <v>0.02721656077908495</v>
+        <v>-0.03883273101707462</v>
       </c>
       <c r="D64">
-        <v>0.05475823317599387</v>
+        <v>0.03428299144510152</v>
       </c>
       <c r="E64">
-        <v>0.05500546615836385</v>
+        <v>0.0136766981586432</v>
       </c>
       <c r="F64">
-        <v>-0.0937496850881137</v>
+        <v>-0.07639064709089022</v>
       </c>
       <c r="G64">
-        <v>0.05261212975260215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06194202966685974</v>
+      </c>
+      <c r="H64">
+        <v>0.01136915337969467</v>
+      </c>
+      <c r="I64">
+        <v>-0.02549604604765583</v>
+      </c>
+      <c r="J64">
+        <v>0.07547198207713596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01543766172907887</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.003383563657935821</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0002390937709858489</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004814649501301326</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.000371615675440169</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01952499257899703</v>
+      </c>
+      <c r="H65">
+        <v>0.001500077523010731</v>
+      </c>
+      <c r="I65">
+        <v>0.004051880983179388</v>
+      </c>
+      <c r="J65">
+        <v>-0.001047323786001426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09810211914189333</v>
+        <v>0.07033759282745609</v>
       </c>
       <c r="C66">
-        <v>0.0170338368105735</v>
+        <v>-0.04799562519827753</v>
       </c>
       <c r="D66">
-        <v>0.03444216978942595</v>
+        <v>0.0429399075783182</v>
       </c>
       <c r="E66">
-        <v>0.08152106124431752</v>
+        <v>-0.04208750113953052</v>
       </c>
       <c r="F66">
-        <v>-0.0434862452621044</v>
+        <v>-0.07019725782634011</v>
       </c>
       <c r="G66">
-        <v>0.01039775108231154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01031583093432845</v>
+      </c>
+      <c r="H66">
+        <v>-0.009277965563902145</v>
+      </c>
+      <c r="I66">
+        <v>0.04778577235224032</v>
+      </c>
+      <c r="J66">
+        <v>0.0352464110145588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06388722238910088</v>
+        <v>0.0420201797557889</v>
       </c>
       <c r="C67">
-        <v>-0.02083540412161085</v>
+        <v>0.006975176790132528</v>
       </c>
       <c r="D67">
-        <v>0.0113984832482828</v>
+        <v>0.007203626234208985</v>
       </c>
       <c r="E67">
-        <v>0.0246622592661846</v>
+        <v>-0.01626784790894831</v>
       </c>
       <c r="F67">
-        <v>-0.01053785914908281</v>
+        <v>-0.03624811185278618</v>
       </c>
       <c r="G67">
-        <v>-0.03799851628059376</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03030564971170501</v>
+      </c>
+      <c r="H67">
+        <v>-0.002003073550880826</v>
+      </c>
+      <c r="I67">
+        <v>0.03464786700524489</v>
+      </c>
+      <c r="J67">
+        <v>-0.009995978090285415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.003870559644556742</v>
+        <v>0.03644755519265137</v>
       </c>
       <c r="C68">
-        <v>-0.2441515291617698</v>
+        <v>0.233793574653593</v>
       </c>
       <c r="D68">
-        <v>-0.002013513209770299</v>
+        <v>0.005736765483107487</v>
       </c>
       <c r="E68">
-        <v>0.03579586431502816</v>
+        <v>-0.04411649199313128</v>
       </c>
       <c r="F68">
-        <v>-0.001061957184010163</v>
+        <v>-0.0306852036494137</v>
       </c>
       <c r="G68">
-        <v>0.004702475814244437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.005278197413031824</v>
+      </c>
+      <c r="H68">
+        <v>0.02201880007327124</v>
+      </c>
+      <c r="I68">
+        <v>-0.1740950352607078</v>
+      </c>
+      <c r="J68">
+        <v>-0.02709522293478639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06676254326817412</v>
+        <v>0.069314347633368</v>
       </c>
       <c r="C69">
-        <v>0.004927471409695302</v>
+        <v>-0.01523793915207611</v>
       </c>
       <c r="D69">
-        <v>0.02508934642114426</v>
+        <v>0.03126416237046939</v>
       </c>
       <c r="E69">
-        <v>-0.01125306076626017</v>
+        <v>-0.007130002606095843</v>
       </c>
       <c r="F69">
-        <v>0.0008861895907724751</v>
+        <v>-0.002638166705983712</v>
       </c>
       <c r="G69">
-        <v>-0.01559560258532948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02335599334923479</v>
+      </c>
+      <c r="H69">
+        <v>-0.04628868410448894</v>
+      </c>
+      <c r="I69">
+        <v>0.001025448383282142</v>
+      </c>
+      <c r="J69">
+        <v>-0.003646769905674541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.001034518190163505</v>
+        <v>0.04115114487848781</v>
       </c>
       <c r="C71">
-        <v>-0.2612048151895516</v>
+        <v>0.2481927523885716</v>
       </c>
       <c r="D71">
-        <v>-0.002935221578815958</v>
+        <v>-0.0140135662071104</v>
       </c>
       <c r="E71">
-        <v>0.06461174345710503</v>
+        <v>-0.071576705140109</v>
       </c>
       <c r="F71">
-        <v>-0.01512949288003234</v>
+        <v>-0.04009319594278556</v>
       </c>
       <c r="G71">
-        <v>0.08788363717986193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01667654075708835</v>
+      </c>
+      <c r="H71">
+        <v>0.03958666578699032</v>
+      </c>
+      <c r="I71">
+        <v>-0.1440762472366093</v>
+      </c>
+      <c r="J71">
+        <v>-0.03350240307476661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1161997058542451</v>
+        <v>0.1188760644602918</v>
       </c>
       <c r="C72">
-        <v>-0.01957018258233463</v>
+        <v>-0.004105490835022962</v>
       </c>
       <c r="D72">
-        <v>0.04801101942336855</v>
+        <v>0.05665890881510575</v>
       </c>
       <c r="E72">
-        <v>0.08925590500660931</v>
+        <v>-0.03250366592322806</v>
       </c>
       <c r="F72">
-        <v>-0.008797262782589677</v>
+        <v>-0.07871656193392471</v>
       </c>
       <c r="G72">
-        <v>-0.06365925992496438</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04149837369102798</v>
+      </c>
+      <c r="H72">
+        <v>-0.002606763126542181</v>
+      </c>
+      <c r="I72">
+        <v>0.02169908583710834</v>
+      </c>
+      <c r="J72">
+        <v>-0.1288000882386245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2787919795452564</v>
+        <v>0.2691720002899708</v>
       </c>
       <c r="C73">
-        <v>-0.196564412145727</v>
+        <v>0.1079227980819885</v>
       </c>
       <c r="D73">
-        <v>-0.0313313120312532</v>
+        <v>-0.003304460373000217</v>
       </c>
       <c r="E73">
-        <v>0.3064756082791839</v>
+        <v>-0.2577038312381376</v>
       </c>
       <c r="F73">
-        <v>-0.07548318900949982</v>
+        <v>-0.2298353177988742</v>
       </c>
       <c r="G73">
-        <v>0.3877586599034997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1246193136444589</v>
+      </c>
+      <c r="H73">
+        <v>0.4425543214673827</v>
+      </c>
+      <c r="I73">
+        <v>0.3389705672684777</v>
+      </c>
+      <c r="J73">
+        <v>-0.06317208378057462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1579800968805573</v>
+        <v>0.152120974554484</v>
       </c>
       <c r="C74">
-        <v>-0.01036075015254185</v>
+        <v>-0.0192283849246835</v>
       </c>
       <c r="D74">
-        <v>0.04857194688814163</v>
+        <v>0.04783489679573859</v>
       </c>
       <c r="E74">
-        <v>-0.006003031820184519</v>
+        <v>0.02206500604626676</v>
       </c>
       <c r="F74">
-        <v>0.0484806721471676</v>
+        <v>0.03427703318321801</v>
       </c>
       <c r="G74">
-        <v>0.03966504789231876</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01439197739094871</v>
+      </c>
+      <c r="H74">
+        <v>0.02153542061082256</v>
+      </c>
+      <c r="I74">
+        <v>0.008524320713086279</v>
+      </c>
+      <c r="J74">
+        <v>0.08662688974326668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.236525990844197</v>
+        <v>0.2437001901630935</v>
       </c>
       <c r="C75">
-        <v>-0.01626489245574406</v>
+        <v>-0.02020038868017062</v>
       </c>
       <c r="D75">
-        <v>0.06330732200794005</v>
+        <v>0.1033744314499981</v>
       </c>
       <c r="E75">
-        <v>-0.1221862713360002</v>
+        <v>0.05726924339233602</v>
       </c>
       <c r="F75">
-        <v>0.06350737900553692</v>
+        <v>0.1206571259683215</v>
       </c>
       <c r="G75">
-        <v>0.03099274317000124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.007855233196647665</v>
+      </c>
+      <c r="H75">
+        <v>0.01911187439403807</v>
+      </c>
+      <c r="I75">
+        <v>-0.06499965151871273</v>
+      </c>
+      <c r="J75">
+        <v>0.1010460024225521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2434910814765355</v>
+        <v>0.266977463787884</v>
       </c>
       <c r="C76">
-        <v>-0.02208261976075638</v>
+        <v>-0.01386092127044604</v>
       </c>
       <c r="D76">
-        <v>0.09954763452985738</v>
+        <v>0.1290775393592972</v>
       </c>
       <c r="E76">
-        <v>-0.1112550806052332</v>
+        <v>0.1023023640561712</v>
       </c>
       <c r="F76">
-        <v>0.08027222015265631</v>
+        <v>0.1326001379094529</v>
       </c>
       <c r="G76">
-        <v>0.04672841097048414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04451628402438305</v>
+      </c>
+      <c r="H76">
+        <v>0.03325652362773467</v>
+      </c>
+      <c r="I76">
+        <v>0.021769186720944</v>
+      </c>
+      <c r="J76">
+        <v>0.1212783515946912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1270101013551551</v>
+        <v>0.1332191992545787</v>
       </c>
       <c r="C77">
-        <v>0.01719633030234018</v>
+        <v>-0.04954173172347753</v>
       </c>
       <c r="D77">
-        <v>-0.0528299317947337</v>
+        <v>-0.04507716053363673</v>
       </c>
       <c r="E77">
-        <v>0.1672066347934409</v>
+        <v>-0.06087977089710969</v>
       </c>
       <c r="F77">
-        <v>-0.01882267829238578</v>
+        <v>-0.1612798585666587</v>
       </c>
       <c r="G77">
-        <v>-0.1605663159114991</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0186661128008069</v>
+      </c>
+      <c r="H77">
+        <v>-0.1937391530581647</v>
+      </c>
+      <c r="I77">
+        <v>-0.1615088783099719</v>
+      </c>
+      <c r="J77">
+        <v>0.1135957832736794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0936273938649668</v>
+        <v>0.08964236767173603</v>
       </c>
       <c r="C78">
-        <v>0.03008260127923984</v>
+        <v>-0.0578127719021632</v>
       </c>
       <c r="D78">
-        <v>-0.01744929594464387</v>
+        <v>2.247473657539124e-05</v>
       </c>
       <c r="E78">
-        <v>0.06613089596759292</v>
+        <v>-0.02102341360711028</v>
       </c>
       <c r="F78">
-        <v>-0.01687430287684215</v>
+        <v>-0.08744726504908057</v>
       </c>
       <c r="G78">
-        <v>-0.004639693159463174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.001231615030856487</v>
+      </c>
+      <c r="H78">
+        <v>-0.02923605989131225</v>
+      </c>
+      <c r="I78">
+        <v>-0.03531863760662485</v>
+      </c>
+      <c r="J78">
+        <v>0.0202779077767647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05937625353222312</v>
+        <v>0.1064373019641658</v>
       </c>
       <c r="C80">
-        <v>0.003984619644588753</v>
+        <v>0.1300214071175607</v>
       </c>
       <c r="D80">
-        <v>-0.01005531775575423</v>
+        <v>-0.2407346707933919</v>
       </c>
       <c r="E80">
-        <v>0.02519510994314383</v>
+        <v>0.838775616863414</v>
       </c>
       <c r="F80">
-        <v>0.03943834458531757</v>
+        <v>-0.4148580883329254</v>
       </c>
       <c r="G80">
-        <v>-0.3869483999508694</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.002396516842582479</v>
+      </c>
+      <c r="H80">
+        <v>0.1202050560696415</v>
+      </c>
+      <c r="I80">
+        <v>0.05351833760915162</v>
+      </c>
+      <c r="J80">
+        <v>-0.07594851199964943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1626177420506889</v>
+        <v>0.1774160921623425</v>
       </c>
       <c r="C81">
-        <v>-0.01472067945980005</v>
+        <v>-0.004841761327913884</v>
       </c>
       <c r="D81">
-        <v>0.0506727292580126</v>
+        <v>0.08546690748615381</v>
       </c>
       <c r="E81">
-        <v>-0.125056144281344</v>
+        <v>0.07018433540244519</v>
       </c>
       <c r="F81">
-        <v>0.09293003965579655</v>
+        <v>0.1280372349002842</v>
       </c>
       <c r="G81">
-        <v>0.03469903621044203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02296956254107236</v>
+      </c>
+      <c r="H81">
+        <v>0.01393522771279977</v>
+      </c>
+      <c r="I81">
+        <v>-0.03218004289180584</v>
+      </c>
+      <c r="J81">
+        <v>0.04901743798054776</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08208289836491052</v>
+        <v>0.06360392541094921</v>
       </c>
       <c r="C83">
-        <v>0.03524653849876411</v>
+        <v>-0.04003666273559718</v>
       </c>
       <c r="D83">
-        <v>-0.09015021404156606</v>
+        <v>-0.03925193790694415</v>
       </c>
       <c r="E83">
-        <v>0.03275044402880308</v>
+        <v>-0.04169973769793364</v>
       </c>
       <c r="F83">
-        <v>-0.06035356070500437</v>
+        <v>-0.04299512670610157</v>
       </c>
       <c r="G83">
-        <v>-0.02475644294336858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04600738658271415</v>
+      </c>
+      <c r="H83">
+        <v>-0.04069548070929276</v>
+      </c>
+      <c r="I83">
+        <v>-0.02331720050877628</v>
+      </c>
+      <c r="J83">
+        <v>0.08438797480521611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2376446761407227</v>
+        <v>0.2550348174003408</v>
       </c>
       <c r="C85">
-        <v>0.04492428895055341</v>
+        <v>-0.05252288378460574</v>
       </c>
       <c r="D85">
-        <v>0.05582454365708348</v>
+        <v>0.0878906654379784</v>
       </c>
       <c r="E85">
-        <v>-0.1362931628273197</v>
+        <v>0.0994645060926786</v>
       </c>
       <c r="F85">
-        <v>0.06118314680095378</v>
+        <v>0.1289496005821877</v>
       </c>
       <c r="G85">
-        <v>-0.005954396991774383</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.004499295068160696</v>
+      </c>
+      <c r="H85">
+        <v>-0.01762956255075118</v>
+      </c>
+      <c r="I85">
+        <v>-0.03983828209364909</v>
+      </c>
+      <c r="J85">
+        <v>0.1248995856698454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04772588217991067</v>
+        <v>0.02890761147444719</v>
       </c>
       <c r="C86">
-        <v>0.03616036962483646</v>
+        <v>-0.04358514922339228</v>
       </c>
       <c r="D86">
-        <v>0.007124879591954314</v>
+        <v>0.004614931179413604</v>
       </c>
       <c r="E86">
-        <v>0.04788758056143028</v>
+        <v>-0.006975539170627151</v>
       </c>
       <c r="F86">
-        <v>-0.001454195665728911</v>
+        <v>-0.06709574177099298</v>
       </c>
       <c r="G86">
-        <v>-0.0434078482895701</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.004272361530693432</v>
+      </c>
+      <c r="H86">
+        <v>-0.0585724064882879</v>
+      </c>
+      <c r="I86">
+        <v>-0.05459970320627295</v>
+      </c>
+      <c r="J86">
+        <v>0.0162520584644139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02463558887329398</v>
+        <v>0.03539680154464912</v>
       </c>
       <c r="C87">
-        <v>-0.05423009368925423</v>
+        <v>0.02264784761903266</v>
       </c>
       <c r="D87">
-        <v>0.01706397884570019</v>
+        <v>0.005192610812625652</v>
       </c>
       <c r="E87">
-        <v>0.06097463625990295</v>
+        <v>-0.04549355672455879</v>
       </c>
       <c r="F87">
-        <v>-0.05790785873168199</v>
+        <v>-0.08554779660025054</v>
       </c>
       <c r="G87">
-        <v>0.1157340364897528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02587651681269356</v>
+      </c>
+      <c r="H87">
+        <v>0.008576845670867243</v>
+      </c>
+      <c r="I87">
+        <v>0.008759419033338097</v>
+      </c>
+      <c r="J87">
+        <v>-0.06942603709489015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03789098256240322</v>
+        <v>0.0247648286389953</v>
       </c>
       <c r="C88">
-        <v>0.02354566482616855</v>
+        <v>-0.0160327140712862</v>
       </c>
       <c r="D88">
-        <v>0.008436174621706108</v>
+        <v>0.01118501149772832</v>
       </c>
       <c r="E88">
-        <v>-0.004115293828854251</v>
+        <v>0.02592484286505342</v>
       </c>
       <c r="F88">
-        <v>0.01098189550309096</v>
+        <v>-0.008808842550781893</v>
       </c>
       <c r="G88">
-        <v>-0.0530546999123935</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02681325723730615</v>
+      </c>
+      <c r="H88">
+        <v>-0.04590917940988685</v>
+      </c>
+      <c r="I88">
+        <v>0.02127099720242472</v>
+      </c>
+      <c r="J88">
+        <v>-0.00889759195324401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02435304813828871</v>
+        <v>0.0524900395171888</v>
       </c>
       <c r="C89">
-        <v>-0.4248940015748723</v>
+        <v>0.3952523166431651</v>
       </c>
       <c r="D89">
-        <v>-0.0972864416058863</v>
+        <v>-0.03696757150120349</v>
       </c>
       <c r="E89">
-        <v>-0.02349402998306542</v>
+        <v>-0.08122408042693335</v>
       </c>
       <c r="F89">
-        <v>-0.005421829984426548</v>
+        <v>0.009513415168355396</v>
       </c>
       <c r="G89">
-        <v>-0.04161609144711246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06007845464926662</v>
+      </c>
+      <c r="H89">
+        <v>-0.02088448232582159</v>
+      </c>
+      <c r="I89">
+        <v>-0.2856896597591553</v>
+      </c>
+      <c r="J89">
+        <v>0.02027273340083031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01427346443050992</v>
+        <v>0.03513197002113327</v>
       </c>
       <c r="C90">
-        <v>-0.3066596744066032</v>
+        <v>0.3338532121915151</v>
       </c>
       <c r="D90">
-        <v>-0.02253947601761674</v>
+        <v>-0.02144124848539785</v>
       </c>
       <c r="E90">
-        <v>0.03143373430751484</v>
+        <v>-0.03761409166461033</v>
       </c>
       <c r="F90">
-        <v>-0.009593600554969576</v>
+        <v>-0.02350766108790573</v>
       </c>
       <c r="G90">
-        <v>0.06732438325119311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02271572758335868</v>
+      </c>
+      <c r="H90">
+        <v>0.02761233013311148</v>
+      </c>
+      <c r="I90">
+        <v>-0.2159166313972538</v>
+      </c>
+      <c r="J90">
+        <v>-0.02215821661939211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3034699318757388</v>
+        <v>0.3168324636487155</v>
       </c>
       <c r="C91">
-        <v>0.01357632441597376</v>
+        <v>-0.03919102905238555</v>
       </c>
       <c r="D91">
-        <v>0.06052531834634424</v>
+        <v>0.1041173604175624</v>
       </c>
       <c r="E91">
-        <v>-0.2720730471286288</v>
+        <v>0.1352259557005312</v>
       </c>
       <c r="F91">
-        <v>0.1682810209811768</v>
+        <v>0.2556179600447323</v>
       </c>
       <c r="G91">
-        <v>-0.05230022029487327</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04022240335506296</v>
+      </c>
+      <c r="H91">
+        <v>0.02398260226373147</v>
+      </c>
+      <c r="I91">
+        <v>-0.08211327653020903</v>
+      </c>
+      <c r="J91">
+        <v>0.2325561317677887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03646189056939441</v>
+        <v>0.07391432858574869</v>
       </c>
       <c r="C92">
-        <v>-0.4400116210940609</v>
+        <v>0.4620156338558353</v>
       </c>
       <c r="D92">
-        <v>-0.2078825047533894</v>
+        <v>-0.06071885944463948</v>
       </c>
       <c r="E92">
-        <v>-0.1111432218913915</v>
+        <v>0.0240764975452224</v>
       </c>
       <c r="F92">
-        <v>0.09786381074096127</v>
+        <v>0.1505240976726392</v>
       </c>
       <c r="G92">
-        <v>-0.4465766285208933</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04684865776844366</v>
+      </c>
+      <c r="H92">
+        <v>-0.504183280748247</v>
+      </c>
+      <c r="I92">
+        <v>0.6723571069819202</v>
+      </c>
+      <c r="J92">
+        <v>0.1472692636272819</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03050875239351011</v>
+        <v>0.03502988283611062</v>
       </c>
       <c r="C93">
-        <v>-0.3682917342005537</v>
+        <v>0.4041160093989033</v>
       </c>
       <c r="D93">
-        <v>-0.06906296061872996</v>
+        <v>-0.04668020431436873</v>
       </c>
       <c r="E93">
-        <v>-0.04253290690483366</v>
+        <v>-0.04973096843244758</v>
       </c>
       <c r="F93">
-        <v>0.01680475661793625</v>
+        <v>0.04118838185448642</v>
       </c>
       <c r="G93">
-        <v>-0.01780617274342257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0395684741146432</v>
+      </c>
+      <c r="H93">
+        <v>0.03786275274507562</v>
+      </c>
+      <c r="I93">
+        <v>-0.1997743895406966</v>
+      </c>
+      <c r="J93">
+        <v>0.002993587114652539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2934549475362896</v>
+        <v>0.3206868313507292</v>
       </c>
       <c r="C94">
-        <v>-0.04185531895528311</v>
+        <v>0.003544616903463994</v>
       </c>
       <c r="D94">
-        <v>0.01564553352508766</v>
+        <v>0.1540864593868553</v>
       </c>
       <c r="E94">
-        <v>-0.3741648911546898</v>
+        <v>0.1242139512279393</v>
       </c>
       <c r="F94">
-        <v>0.4258189931017892</v>
+        <v>0.3458372868329608</v>
       </c>
       <c r="G94">
-        <v>0.02073196563312108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1648820266240983</v>
+      </c>
+      <c r="H94">
+        <v>-0.08361905723156773</v>
+      </c>
+      <c r="I94">
+        <v>-0.1109129105042037</v>
+      </c>
+      <c r="J94">
+        <v>-0.3646724581984594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.195284101945346</v>
+        <v>0.1370662453734503</v>
       </c>
       <c r="C95">
-        <v>-0.0398017872703565</v>
+        <v>-0.0577270329991869</v>
       </c>
       <c r="D95">
-        <v>-0.003029881526684503</v>
+        <v>0.04330047385701542</v>
       </c>
       <c r="E95">
-        <v>-0.4470576706610361</v>
+        <v>-0.009764129796247346</v>
       </c>
       <c r="F95">
-        <v>-0.8226493595330731</v>
+        <v>0.04232999598554035</v>
       </c>
       <c r="G95">
-        <v>-0.09423328867025728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9351144745151323</v>
+      </c>
+      <c r="H95">
+        <v>0.08535979249184113</v>
+      </c>
+      <c r="I95">
+        <v>0.05934329037655664</v>
+      </c>
+      <c r="J95">
+        <v>-0.2014653880342899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2184442827743023</v>
+        <v>0.2072573388693085</v>
       </c>
       <c r="C98">
-        <v>-0.13545274407943</v>
+        <v>0.07178800563690678</v>
       </c>
       <c r="D98">
-        <v>-0.04107918582376599</v>
+        <v>-0.01079893938872596</v>
       </c>
       <c r="E98">
-        <v>0.1065777502875132</v>
+        <v>-0.1611816611725591</v>
       </c>
       <c r="F98">
-        <v>-0.03710101153967731</v>
+        <v>-0.1033978805888987</v>
       </c>
       <c r="G98">
-        <v>0.264991509811224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06313456505110514</v>
+      </c>
+      <c r="H98">
+        <v>0.3100222907397145</v>
+      </c>
+      <c r="I98">
+        <v>0.1994494991518542</v>
+      </c>
+      <c r="J98">
+        <v>0.00374427277788853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01995289608205696</v>
+        <v>0.01232982715639868</v>
       </c>
       <c r="C101">
-        <v>0.01712039600098119</v>
+        <v>-0.02858706750070171</v>
       </c>
       <c r="D101">
-        <v>0.02530820877201893</v>
+        <v>0.0273102999697304</v>
       </c>
       <c r="E101">
-        <v>0.02903995300392305</v>
+        <v>-0.008879511280153081</v>
       </c>
       <c r="F101">
-        <v>-0.006333930828753305</v>
+        <v>-0.06557175819517841</v>
       </c>
       <c r="G101">
-        <v>-0.04049912408918896</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.006754468871618885</v>
+      </c>
+      <c r="H101">
+        <v>-0.1188434104444681</v>
+      </c>
+      <c r="I101">
+        <v>0.009195301317280797</v>
+      </c>
+      <c r="J101">
+        <v>-0.1734620220027624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1186965703399037</v>
+        <v>0.1211660017416784</v>
       </c>
       <c r="C102">
-        <v>0.00648347600798945</v>
+        <v>-0.02552182904851195</v>
       </c>
       <c r="D102">
-        <v>0.04106498922499312</v>
+        <v>0.05238192638628766</v>
       </c>
       <c r="E102">
-        <v>-0.08456507008845789</v>
+        <v>0.06103941671333159</v>
       </c>
       <c r="F102">
-        <v>0.002620438193227954</v>
+        <v>0.06867318081040111</v>
       </c>
       <c r="G102">
-        <v>0.001565549964559891</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02840712590178304</v>
+      </c>
+      <c r="H102">
+        <v>0.01481394354502521</v>
+      </c>
+      <c r="I102">
+        <v>-0.03820385641234494</v>
+      </c>
+      <c r="J102">
+        <v>0.04550715016600104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01747066898904546</v>
+        <v>0.03070695385005557</v>
       </c>
       <c r="C103">
-        <v>-0.002185095922026389</v>
+        <v>-0.004474857342747249</v>
       </c>
       <c r="D103">
-        <v>0.01606628553690376</v>
+        <v>0.02013054090587938</v>
       </c>
       <c r="E103">
-        <v>-0.02876917214330392</v>
+        <v>0.02795273113607234</v>
       </c>
       <c r="F103">
-        <v>0.01632172725900719</v>
+        <v>0.01180345163642141</v>
       </c>
       <c r="G103">
-        <v>0.008490551044904617</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01387376706070739</v>
+      </c>
+      <c r="H103">
+        <v>-0.01199436537347771</v>
+      </c>
+      <c r="I103">
+        <v>-0.02940451554843408</v>
+      </c>
+      <c r="J103">
+        <v>0.01018623134009817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
